--- a/templates/export/events.xlsx
+++ b/templates/export/events.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="template" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,9 +19,9 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -35,7 +34,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="E9")</t>
+          <t>jx:area(lastCell="E9")</t>
         </r>
       </text>
     </comment>
@@ -49,7 +48,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="devices", var="device", lastCell="E9" multisheet="sheetNames")</t>
+          <t>jx:each(items="devices", var="device", lastCell="E9" multisheet="sheetNames")</t>
         </r>
       </text>
     </comment>
@@ -63,7 +62,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="device.objects", var="event", lastCell="E9")</t>
+          <t>jx:each(items="device.objects", var="event", lastCell="E9")</t>
         </r>
       </text>
     </comment>
@@ -74,70 +73,68 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t xml:space="preserve">Report type:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${device.deviceName}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${device.groupName}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${dateTool.format("YYYY-MM-dd HH:mm:ss", from, locale, timezone)+" - "+dateTool.format("YYYY-MM-dd HH:mm:ss", to, locale, timezone)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geofence Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attributes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${dateTool.format("YYYY-MM-dd HH:mm:ss", event.eventTime, locale, timezone)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${event.type}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${geofenceNames[event.geofenceId]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${maintenanceNames[event.maintenanceId]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${event.attributes.toString().replaceAll(",", " ").replaceAll(bracketsRegex, "")}</t>
+    <t>Report type:</t>
+  </si>
+  <si>
+    <t>Device:</t>
+  </si>
+  <si>
+    <t>${device.deviceName}</t>
+  </si>
+  <si>
+    <t>Group:</t>
+  </si>
+  <si>
+    <t>${device.groupName}</t>
+  </si>
+  <si>
+    <t>Period:</t>
+  </si>
+  <si>
+    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", from, locale, timezone)+" - "+dateTool.format("YYYY-MM-dd HH:mm:ss", to, locale, timezone)}</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Geofence Name</t>
+  </si>
+  <si>
+    <t>Maintenance Name</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", event.eventTime, locale, timezone)}</t>
+  </si>
+  <si>
+    <t>${event.type}</t>
+  </si>
+  <si>
+    <t>${geofenceNames[event.geofenceId]}</t>
+  </si>
+  <si>
+    <t>${maintenanceNames[event.maintenanceId]}</t>
+  </si>
+  <si>
+    <t>${event.attributes.toString().replaceAll(",", " ").replaceAll(bracketsRegex, "")}</t>
+  </si>
+  <si>
+    <t>Eventos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -146,22 +143,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="Calibri"/>
@@ -176,7 +158,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -191,7 +173,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -199,7 +181,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
@@ -236,116 +218,79 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="15"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -404,13 +349,21 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -424,9 +377,9 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -438,7 +391,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -448,9 +401,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -469,9 +428,9 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="0" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -483,7 +442,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -493,9 +452,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -514,9 +479,9 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -528,7 +493,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -538,15 +503,21 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -559,52 +530,7 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10013400" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1133280</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -618,7 +544,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
@@ -628,15 +554,21 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -649,7 +581,7 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -663,7 +595,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
@@ -673,9 +605,66 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1133280</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10013400" cy="9524520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -684,133 +673,408 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="38.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="55.43"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="5" max="5" width="55.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="29.25" customHeight="1">
       <c r="A8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1">
+      <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>